--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonv/Documents/GitHub/etoro-edavki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D3D61-9C81-425C-BCEF-F23167EAF1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD57068-E31C-6E4E-B2DE-F7276E1492DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="1601">
   <si>
     <t>Symbol</t>
   </si>
@@ -4592,13 +4605,244 @@
   </si>
   <si>
     <t>Invesco Solar ETF</t>
+  </si>
+  <si>
+    <t>CNQ</t>
+  </si>
+  <si>
+    <t>CA1363851017</t>
+  </si>
+  <si>
+    <t>Canadian Natural Resources Ltd</t>
+  </si>
+  <si>
+    <t>MED.US</t>
+  </si>
+  <si>
+    <t>US58470H1014</t>
+  </si>
+  <si>
+    <t>Medifast Inc</t>
+  </si>
+  <si>
+    <t>US2441991054</t>
+  </si>
+  <si>
+    <t>Deere &amp; Co</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>US09260D1072</t>
+  </si>
+  <si>
+    <t>BlackStone Group LP</t>
+  </si>
+  <si>
+    <t>KMI</t>
+  </si>
+  <si>
+    <t>US49456B1017</t>
+  </si>
+  <si>
+    <t>Kinder Morgan Inc</t>
+  </si>
+  <si>
+    <t>JEF</t>
+  </si>
+  <si>
+    <t>US47233W1099</t>
+  </si>
+  <si>
+    <t>Jefferies Financial Group Inc</t>
+  </si>
+  <si>
+    <t>APO</t>
+  </si>
+  <si>
+    <t>US03769M1062</t>
+  </si>
+  <si>
+    <t>Apollo Global Management Inc</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>US30231G1022</t>
+  </si>
+  <si>
+    <t>Exxon-Mobil</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>US2605571031</t>
+  </si>
+  <si>
+    <t>Dow Inc.</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>US91324P1021</t>
+  </si>
+  <si>
+    <t>UnitedHealth</t>
+  </si>
+  <si>
+    <t>IBB</t>
+  </si>
+  <si>
+    <t>US4642875565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ishares Nasdaq Biotechnology </t>
+  </si>
+  <si>
+    <t>AMR</t>
+  </si>
+  <si>
+    <t>US0207641061</t>
+  </si>
+  <si>
+    <t>Alpha Metallurgical Resources, Inc</t>
+  </si>
+  <si>
+    <t>BAX</t>
+  </si>
+  <si>
+    <t>US0718131099</t>
+  </si>
+  <si>
+    <t>Baxter International Inc</t>
+  </si>
+  <si>
+    <t>IEUR</t>
+  </si>
+  <si>
+    <t>US46434V7385</t>
+  </si>
+  <si>
+    <t>iShares Core MSCI Europe ETF</t>
+  </si>
+  <si>
+    <t>SUE</t>
+  </si>
+  <si>
+    <t>CA8672241079</t>
+  </si>
+  <si>
+    <t>Suncor Energy Inc.</t>
+  </si>
+  <si>
+    <t>MTB</t>
+  </si>
+  <si>
+    <t>US55261F1049</t>
+  </si>
+  <si>
+    <t>M&amp;T Bank Corporation</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>US8740391003</t>
+  </si>
+  <si>
+    <t>Taiwan Semiconductor Manufacturing Co Ltd - ADR</t>
+  </si>
+  <si>
+    <t>LQD</t>
+  </si>
+  <si>
+    <t>US4642872422</t>
+  </si>
+  <si>
+    <t>iShares iBoxx $ Investment Grade Corporate Bond ETF</t>
+  </si>
+  <si>
+    <t>LLOY.L</t>
+  </si>
+  <si>
+    <t>GB0008706128</t>
+  </si>
+  <si>
+    <t>Lloyd's Banking Group PLC</t>
+  </si>
+  <si>
+    <t>MGAM</t>
+  </si>
+  <si>
+    <t>GB0006027295</t>
+  </si>
+  <si>
+    <t>Morgan Advanced Materials PLC</t>
+  </si>
+  <si>
+    <t>855-2 Street SW Suite 2100. T2P 4J8, Calgary</t>
+  </si>
+  <si>
+    <t>100 International Drive 18th Floor. 21202, Baltimore</t>
+  </si>
+  <si>
+    <t>One John Deere Place. 61265-8098, Moline</t>
+  </si>
+  <si>
+    <t>345 Park Avenue. 10154, New York</t>
+  </si>
+  <si>
+    <t>1001 Louisiana Street Suite 1000. 77002, Houston</t>
+  </si>
+  <si>
+    <t>315 Park Avenue South. 10010, New York</t>
+  </si>
+  <si>
+    <t>9 West 57th Street 42nd floor. 10019, New York</t>
+  </si>
+  <si>
+    <t>22777 Springwoods Village Parkway. 77389-1425, Spring</t>
+  </si>
+  <si>
+    <t>2211 H.H. Dow Way. 48674, Midland</t>
+  </si>
+  <si>
+    <t>Center 9900 Bren Road East. 55343, Minnetonka</t>
+  </si>
+  <si>
+    <t>280 PARK AVENUE STREET 2: 10TH FLOOR CITY: NEW YORK</t>
+  </si>
+  <si>
+    <t>340 Martin Luther King Jr. Boulevard. 37620, Bristol</t>
+  </si>
+  <si>
+    <t>One Baxter Parkway. 60015-4625, Deerfield</t>
+  </si>
+  <si>
+    <t>P.o. Box 2844, 150 - 6th Avenue S.w.. Calgary</t>
+  </si>
+  <si>
+    <t>One M&amp;T Plaza 5th floor. 14203, Buffalo</t>
+  </si>
+  <si>
+    <t>8 Li-Hsing Road 6 Hsinchu Science Park Hsinchu Taiwan</t>
+  </si>
+  <si>
+    <t>25 Gresham Street LONDON EC2V 7HN</t>
+  </si>
+  <si>
+    <t>York House, Sheet Street, Windsor, United Kingdom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4617,6 +4861,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4627,6 +4872,13 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4658,16 +4910,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Navadno" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Navadno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Navadno 2 2" xfId="2" xr:uid="{A6128BC9-A440-44F0-B407-83B01CC70D87}"/>
     <cellStyle name="Navadno 3" xfId="3" xr:uid="{78F38918-51BC-4D42-8584-4E63912D672B}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -4717,13 +4969,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E383" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E403">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol" dataCellStyle="Navadno"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN" dataCellStyle="Navadno"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataCellStyle="Navadno"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Address" dataCellStyle="Navadno"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CountryCode" dataDxfId="0" dataCellStyle="Navadno"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Address"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CountryCode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Info-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4929,22 +5181,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="B383" sqref="B383"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="D403" sqref="D403"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="103.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="103.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4961,7 +5213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4978,7 +5230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4995,7 +5247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5012,7 +5264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5029,7 +5281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -5046,7 +5298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -5063,7 +5315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -5080,7 +5332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -5097,7 +5349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -5114,7 +5366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5131,7 +5383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -5148,7 +5400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -5165,7 +5417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -5182,7 +5434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -5199,7 +5451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -5216,7 +5468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5233,7 +5485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -5250,7 +5502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -5267,7 +5519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -5284,7 +5536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -5301,7 +5553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -5318,7 +5570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -5335,7 +5587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -5352,7 +5604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -5369,7 +5621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -5386,7 +5638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -5403,7 +5655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -5420,7 +5672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -5437,7 +5689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -5454,7 +5706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -5471,7 +5723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -5488,7 +5740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -5505,7 +5757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -5522,7 +5774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -5539,7 +5791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -5556,7 +5808,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -5573,7 +5825,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -5590,7 +5842,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>154</v>
       </c>
@@ -5607,7 +5859,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -5624,7 +5876,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -5641,7 +5893,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -5658,7 +5910,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>170</v>
       </c>
@@ -5675,7 +5927,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -5692,7 +5944,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -5709,7 +5961,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>183</v>
       </c>
@@ -5726,7 +5978,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>187</v>
       </c>
@@ -5743,7 +5995,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>190</v>
       </c>
@@ -5760,7 +6012,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>194</v>
       </c>
@@ -5777,7 +6029,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>197</v>
       </c>
@@ -5794,7 +6046,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -5811,7 +6063,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>205</v>
       </c>
@@ -5828,7 +6080,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>209</v>
       </c>
@@ -5845,7 +6097,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>213</v>
       </c>
@@ -5862,7 +6114,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>217</v>
       </c>
@@ -5879,7 +6131,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>220</v>
       </c>
@@ -5896,7 +6148,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -5913,7 +6165,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>228</v>
       </c>
@@ -5930,7 +6182,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -5947,7 +6199,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>236</v>
       </c>
@@ -5964,7 +6216,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>240</v>
       </c>
@@ -5981,7 +6233,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>244</v>
       </c>
@@ -5998,7 +6250,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>247</v>
       </c>
@@ -6015,7 +6267,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>251</v>
       </c>
@@ -6032,7 +6284,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>255</v>
       </c>
@@ -6049,7 +6301,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>259</v>
       </c>
@@ -6066,7 +6318,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -6083,7 +6335,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>267</v>
       </c>
@@ -6100,7 +6352,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>271</v>
       </c>
@@ -6117,7 +6369,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>275</v>
       </c>
@@ -6134,7 +6386,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>278</v>
       </c>
@@ -6151,7 +6403,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>282</v>
       </c>
@@ -6168,7 +6420,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>286</v>
       </c>
@@ -6185,7 +6437,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>289</v>
       </c>
@@ -6202,7 +6454,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -6219,7 +6471,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>295</v>
       </c>
@@ -6236,7 +6488,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>299</v>
       </c>
@@ -6253,7 +6505,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>302</v>
       </c>
@@ -6270,7 +6522,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -6287,7 +6539,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>310</v>
       </c>
@@ -6304,7 +6556,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>313</v>
       </c>
@@ -6321,7 +6573,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>317</v>
       </c>
@@ -6338,7 +6590,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>321</v>
       </c>
@@ -6355,7 +6607,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>325</v>
       </c>
@@ -6372,7 +6624,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>329</v>
       </c>
@@ -6389,7 +6641,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>332</v>
       </c>
@@ -6406,7 +6658,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>336</v>
       </c>
@@ -6423,7 +6675,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>340</v>
       </c>
@@ -6440,7 +6692,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>344</v>
       </c>
@@ -6457,7 +6709,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>347</v>
       </c>
@@ -6474,7 +6726,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>350</v>
       </c>
@@ -6491,7 +6743,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>354</v>
       </c>
@@ -6508,7 +6760,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>358</v>
       </c>
@@ -6525,7 +6777,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>363</v>
       </c>
@@ -6542,7 +6794,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>368</v>
       </c>
@@ -6559,7 +6811,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>372</v>
       </c>
@@ -6576,7 +6828,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>376</v>
       </c>
@@ -6593,7 +6845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>380</v>
       </c>
@@ -6610,7 +6862,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>383</v>
       </c>
@@ -6627,7 +6879,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>387</v>
       </c>
@@ -6644,7 +6896,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>391</v>
       </c>
@@ -6661,7 +6913,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>395</v>
       </c>
@@ -6678,7 +6930,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>399</v>
       </c>
@@ -6695,7 +6947,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>402</v>
       </c>
@@ -6712,7 +6964,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>406</v>
       </c>
@@ -6729,7 +6981,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>409</v>
       </c>
@@ -6746,7 +6998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>413</v>
       </c>
@@ -6763,7 +7015,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>415</v>
       </c>
@@ -6780,7 +7032,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>419</v>
       </c>
@@ -6797,7 +7049,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>423</v>
       </c>
@@ -6814,7 +7066,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>427</v>
       </c>
@@ -6831,7 +7083,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>431</v>
       </c>
@@ -6848,7 +7100,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>436</v>
       </c>
@@ -6865,7 +7117,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>439</v>
       </c>
@@ -6882,7 +7134,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>443</v>
       </c>
@@ -6899,7 +7151,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>445</v>
       </c>
@@ -6916,7 +7168,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>449</v>
       </c>
@@ -6933,7 +7185,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>453</v>
       </c>
@@ -6950,7 +7202,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>454</v>
       </c>
@@ -6967,7 +7219,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>455</v>
       </c>
@@ -6984,7 +7236,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>456</v>
       </c>
@@ -7001,7 +7253,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>457</v>
       </c>
@@ -7018,7 +7270,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>458</v>
       </c>
@@ -7035,7 +7287,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>459</v>
       </c>
@@ -7052,7 +7304,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>460</v>
       </c>
@@ -7069,7 +7321,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>461</v>
       </c>
@@ -7086,7 +7338,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>462</v>
       </c>
@@ -7103,7 +7355,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>463</v>
       </c>
@@ -7120,7 +7372,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>464</v>
       </c>
@@ -7137,7 +7389,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>465</v>
       </c>
@@ -7154,7 +7406,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>466</v>
       </c>
@@ -7171,7 +7423,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>468</v>
       </c>
@@ -7188,7 +7440,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>469</v>
       </c>
@@ -7205,7 +7457,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>470</v>
       </c>
@@ -7222,7 +7474,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>471</v>
       </c>
@@ -7239,7 +7491,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>472</v>
       </c>
@@ -7256,7 +7508,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>467</v>
       </c>
@@ -7273,7 +7525,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>531</v>
       </c>
@@ -7290,7 +7542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>547</v>
       </c>
@@ -7307,7 +7559,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>549</v>
       </c>
@@ -7324,7 +7576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>535</v>
       </c>
@@ -7341,7 +7593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>542</v>
       </c>
@@ -7358,7 +7610,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>545</v>
       </c>
@@ -7375,7 +7627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>533</v>
       </c>
@@ -7392,7 +7644,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>536</v>
       </c>
@@ -7409,7 +7661,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>546</v>
       </c>
@@ -7426,7 +7678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>537</v>
       </c>
@@ -7443,7 +7695,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>538</v>
       </c>
@@ -7460,7 +7712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>573</v>
       </c>
@@ -7477,7 +7729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>540</v>
       </c>
@@ -7494,7 +7746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>544</v>
       </c>
@@ -7511,7 +7763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>539</v>
       </c>
@@ -7528,7 +7780,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>532</v>
       </c>
@@ -7545,7 +7797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>541</v>
       </c>
@@ -7562,7 +7814,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>543</v>
       </c>
@@ -7579,7 +7831,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>548</v>
       </c>
@@ -7596,7 +7848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>534</v>
       </c>
@@ -7613,7 +7865,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>608</v>
       </c>
@@ -7630,7 +7882,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>612</v>
       </c>
@@ -7647,7 +7899,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>616</v>
       </c>
@@ -7664,7 +7916,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>620</v>
       </c>
@@ -7681,7 +7933,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>624</v>
       </c>
@@ -7698,7 +7950,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>629</v>
       </c>
@@ -7715,7 +7967,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>634</v>
       </c>
@@ -7732,7 +7984,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>638</v>
       </c>
@@ -7749,7 +8001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>642</v>
       </c>
@@ -7766,7 +8018,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>647</v>
       </c>
@@ -7783,7 +8035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>650</v>
       </c>
@@ -7800,7 +8052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>654</v>
       </c>
@@ -7817,7 +8069,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>657</v>
       </c>
@@ -7834,7 +8086,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>661</v>
       </c>
@@ -7851,7 +8103,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>665</v>
       </c>
@@ -7868,7 +8120,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>669</v>
       </c>
@@ -7885,7 +8137,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>673</v>
       </c>
@@ -7902,7 +8154,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>677</v>
       </c>
@@ -7919,7 +8171,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>681</v>
       </c>
@@ -7936,7 +8188,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>684</v>
       </c>
@@ -7953,7 +8205,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>688</v>
       </c>
@@ -7970,7 +8222,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>692</v>
       </c>
@@ -7987,7 +8239,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>696</v>
       </c>
@@ -8004,7 +8256,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>700</v>
       </c>
@@ -8021,7 +8273,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>704</v>
       </c>
@@ -8038,7 +8290,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>715</v>
       </c>
@@ -8055,7 +8307,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>718</v>
       </c>
@@ -8072,7 +8324,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>720</v>
       </c>
@@ -8089,7 +8341,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>721</v>
       </c>
@@ -8106,7 +8358,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>722</v>
       </c>
@@ -8123,7 +8375,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>723</v>
       </c>
@@ -8140,7 +8392,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>719</v>
       </c>
@@ -8157,7 +8409,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>738</v>
       </c>
@@ -8174,7 +8426,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>741</v>
       </c>
@@ -8191,7 +8443,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>747</v>
       </c>
@@ -8208,7 +8460,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>749</v>
       </c>
@@ -8225,7 +8477,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>752</v>
       </c>
@@ -8242,7 +8494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>759</v>
       </c>
@@ -8259,7 +8511,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>762</v>
       </c>
@@ -8276,7 +8528,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>765</v>
       </c>
@@ -8293,7 +8545,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>772</v>
       </c>
@@ -8310,7 +8562,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>775</v>
       </c>
@@ -8327,7 +8579,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>778</v>
       </c>
@@ -8344,7 +8596,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>781</v>
       </c>
@@ -8361,7 +8613,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>784</v>
       </c>
@@ -8378,7 +8630,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>787</v>
       </c>
@@ -8395,7 +8647,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>790</v>
       </c>
@@ -8412,7 +8664,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>793</v>
       </c>
@@ -8429,7 +8681,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>801</v>
       </c>
@@ -8446,7 +8698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>804</v>
       </c>
@@ -8463,7 +8715,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>807</v>
       </c>
@@ -8480,7 +8732,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>814</v>
       </c>
@@ -8497,7 +8749,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>816</v>
       </c>
@@ -8514,7 +8766,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>819</v>
       </c>
@@ -8531,7 +8783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>822</v>
       </c>
@@ -8548,7 +8800,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>825</v>
       </c>
@@ -8565,7 +8817,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>828</v>
       </c>
@@ -8582,7 +8834,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>837</v>
       </c>
@@ -8599,7 +8851,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>846</v>
       </c>
@@ -8616,7 +8868,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>850</v>
       </c>
@@ -8633,7 +8885,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>841</v>
       </c>
@@ -8650,7 +8902,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>854</v>
       </c>
@@ -8667,7 +8919,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>858</v>
       </c>
@@ -8684,7 +8936,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>862</v>
       </c>
@@ -8701,7 +8953,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>865</v>
       </c>
@@ -8718,7 +8970,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>869</v>
       </c>
@@ -8735,7 +8987,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>897</v>
       </c>
@@ -8752,7 +9004,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>900</v>
       </c>
@@ -8769,7 +9021,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>903</v>
       </c>
@@ -8786,7 +9038,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>906</v>
       </c>
@@ -8803,7 +9055,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>909</v>
       </c>
@@ -8820,7 +9072,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>912</v>
       </c>
@@ -8837,7 +9089,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>915</v>
       </c>
@@ -8854,7 +9106,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>918</v>
       </c>
@@ -8871,7 +9123,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>921</v>
       </c>
@@ -8888,7 +9140,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>924</v>
       </c>
@@ -8905,7 +9157,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>927</v>
       </c>
@@ -8922,7 +9174,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>930</v>
       </c>
@@ -8939,7 +9191,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>933</v>
       </c>
@@ -8956,7 +9208,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>936</v>
       </c>
@@ -8973,7 +9225,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>939</v>
       </c>
@@ -8990,7 +9242,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>942</v>
       </c>
@@ -9007,7 +9259,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>945</v>
       </c>
@@ -9024,7 +9276,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>948</v>
       </c>
@@ -9041,7 +9293,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>952</v>
       </c>
@@ -9058,7 +9310,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>955</v>
       </c>
@@ -9075,7 +9327,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>958</v>
       </c>
@@ -9092,7 +9344,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>961</v>
       </c>
@@ -9109,7 +9361,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>964</v>
       </c>
@@ -9126,7 +9378,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>967</v>
       </c>
@@ -9143,7 +9395,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>970</v>
       </c>
@@ -9160,7 +9412,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>973</v>
       </c>
@@ -9177,7 +9429,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>976</v>
       </c>
@@ -9194,7 +9446,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>979</v>
       </c>
@@ -9211,7 +9463,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>982</v>
       </c>
@@ -9228,7 +9480,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>986</v>
       </c>
@@ -9245,7 +9497,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>989</v>
       </c>
@@ -9262,7 +9514,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>992</v>
       </c>
@@ -9279,7 +9531,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>995</v>
       </c>
@@ -9296,7 +9548,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>998</v>
       </c>
@@ -9313,7 +9565,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1002</v>
       </c>
@@ -9330,7 +9582,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1006</v>
       </c>
@@ -9347,7 +9599,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1009</v>
       </c>
@@ -9364,7 +9616,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1012</v>
       </c>
@@ -9381,7 +9633,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1015</v>
       </c>
@@ -9398,7 +9650,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1019</v>
       </c>
@@ -9415,7 +9667,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1022</v>
       </c>
@@ -9432,7 +9684,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1025</v>
       </c>
@@ -9449,7 +9701,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1028</v>
       </c>
@@ -9466,7 +9718,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1031</v>
       </c>
@@ -9483,7 +9735,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1034</v>
       </c>
@@ -9500,7 +9752,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1037</v>
       </c>
@@ -9517,7 +9769,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1040</v>
       </c>
@@ -9534,7 +9786,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1043</v>
       </c>
@@ -9551,7 +9803,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1046</v>
       </c>
@@ -9568,7 +9820,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1049</v>
       </c>
@@ -9585,7 +9837,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1052</v>
       </c>
@@ -9602,7 +9854,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1055</v>
       </c>
@@ -9619,7 +9871,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1058</v>
       </c>
@@ -9636,7 +9888,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1061</v>
       </c>
@@ -9653,7 +9905,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1064</v>
       </c>
@@ -9670,7 +9922,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1067</v>
       </c>
@@ -9687,7 +9939,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1070</v>
       </c>
@@ -9704,7 +9956,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1073</v>
       </c>
@@ -9721,7 +9973,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1076</v>
       </c>
@@ -9738,7 +9990,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1079</v>
       </c>
@@ -9755,7 +10007,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1082</v>
       </c>
@@ -9772,7 +10024,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1085</v>
       </c>
@@ -9789,7 +10041,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1088</v>
       </c>
@@ -9806,7 +10058,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1091</v>
       </c>
@@ -9823,7 +10075,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1094</v>
       </c>
@@ -9840,7 +10092,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1097</v>
       </c>
@@ -9857,7 +10109,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1101</v>
       </c>
@@ -9874,7 +10126,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1104</v>
       </c>
@@ -9891,7 +10143,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1107</v>
       </c>
@@ -9908,7 +10160,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1110</v>
       </c>
@@ -9925,7 +10177,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1113</v>
       </c>
@@ -9942,7 +10194,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1116</v>
       </c>
@@ -9959,7 +10211,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1119</v>
       </c>
@@ -9976,7 +10228,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1122</v>
       </c>
@@ -9993,7 +10245,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1125</v>
       </c>
@@ -10010,7 +10262,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1128</v>
       </c>
@@ -10027,7 +10279,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1131</v>
       </c>
@@ -10044,7 +10296,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1134</v>
       </c>
@@ -10061,7 +10313,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1137</v>
       </c>
@@ -10078,7 +10330,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1140</v>
       </c>
@@ -10095,7 +10347,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1143</v>
       </c>
@@ -10112,7 +10364,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1146</v>
       </c>
@@ -10129,7 +10381,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1149</v>
       </c>
@@ -10146,7 +10398,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1152</v>
       </c>
@@ -10163,7 +10415,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1155</v>
       </c>
@@ -10180,7 +10432,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1158</v>
       </c>
@@ -10197,7 +10449,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1161</v>
       </c>
@@ -10214,7 +10466,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1164</v>
       </c>
@@ -10231,7 +10483,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1167</v>
       </c>
@@ -10248,7 +10500,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1170</v>
       </c>
@@ -10265,7 +10517,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1173</v>
       </c>
@@ -10282,7 +10534,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1176</v>
       </c>
@@ -10299,7 +10551,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1179</v>
       </c>
@@ -10316,7 +10568,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1182</v>
       </c>
@@ -10333,7 +10585,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1186</v>
       </c>
@@ -10350,7 +10602,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1189</v>
       </c>
@@ -10367,7 +10619,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1192</v>
       </c>
@@ -10384,7 +10636,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1195</v>
       </c>
@@ -10401,7 +10653,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1198</v>
       </c>
@@ -10418,7 +10670,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1201</v>
       </c>
@@ -10435,7 +10687,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1204</v>
       </c>
@@ -10452,7 +10704,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1207</v>
       </c>
@@ -10469,7 +10721,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1210</v>
       </c>
@@ -10486,7 +10738,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1213</v>
       </c>
@@ -10503,7 +10755,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1216</v>
       </c>
@@ -10520,7 +10772,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1219</v>
       </c>
@@ -10537,7 +10789,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1222</v>
       </c>
@@ -10554,7 +10806,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1225</v>
       </c>
@@ -10571,7 +10823,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1228</v>
       </c>
@@ -10588,7 +10840,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1231</v>
       </c>
@@ -10605,7 +10857,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1235</v>
       </c>
@@ -10622,7 +10874,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1238</v>
       </c>
@@ -10639,7 +10891,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1241</v>
       </c>
@@ -10656,7 +10908,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1244</v>
       </c>
@@ -10673,7 +10925,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1247</v>
       </c>
@@ -10690,7 +10942,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1250</v>
       </c>
@@ -10707,7 +10959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1253</v>
       </c>
@@ -10724,7 +10976,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1256</v>
       </c>
@@ -10741,7 +10993,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1259</v>
       </c>
@@ -10758,7 +11010,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1262</v>
       </c>
@@ -10775,7 +11027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1265</v>
       </c>
@@ -10792,7 +11044,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1268</v>
       </c>
@@ -10809,7 +11061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1271</v>
       </c>
@@ -10826,7 +11078,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1274</v>
       </c>
@@ -10843,7 +11095,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1277</v>
       </c>
@@ -10860,1180 +11112,1500 @@
         <v>146</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="2" t="s">
+    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
         <v>1396</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" t="s">
         <v>1397</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="C349" t="s">
         <v>1398</v>
       </c>
-      <c r="D349" s="2" t="s">
+      <c r="D349" t="s">
         <v>1399</v>
       </c>
-      <c r="E349" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
+      <c r="E349" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
         <v>1400</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B350" t="s">
         <v>1401</v>
       </c>
-      <c r="C350" s="2" t="s">
+      <c r="C350" t="s">
         <v>1402</v>
       </c>
-      <c r="D350" s="2" t="s">
+      <c r="D350" t="s">
         <v>1403</v>
       </c>
-      <c r="E350" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
+      <c r="E350" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
         <v>1404</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" t="s">
         <v>1405</v>
       </c>
-      <c r="C351" s="2" t="s">
+      <c r="C351" t="s">
         <v>1406</v>
       </c>
-      <c r="D351" s="2" t="s">
+      <c r="D351" t="s">
         <v>1407</v>
       </c>
-      <c r="E351" s="3" t="s">
+      <c r="E351" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
+    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
         <v>1408</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" t="s">
         <v>1409</v>
       </c>
-      <c r="C352" s="2" t="s">
+      <c r="C352" t="s">
         <v>1410</v>
       </c>
-      <c r="D352" s="2" t="s">
+      <c r="D352" t="s">
         <v>1411</v>
       </c>
-      <c r="E352" s="3" t="s">
+      <c r="E352" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
+    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
         <v>1412</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" t="s">
         <v>1413</v>
       </c>
-      <c r="C353" s="2" t="s">
+      <c r="C353" t="s">
         <v>1414</v>
       </c>
-      <c r="D353" s="2" t="s">
+      <c r="D353" t="s">
         <v>1415</v>
       </c>
-      <c r="E353" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
+      <c r="E353" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
         <v>1416</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" t="s">
         <v>1417</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="C354" t="s">
         <v>1418</v>
       </c>
-      <c r="D354" s="2" t="s">
+      <c r="D354" t="s">
         <v>1419</v>
       </c>
-      <c r="E354" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
+      <c r="E354" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
         <v>1420</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" t="s">
         <v>1421</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="C355" t="s">
         <v>1422</v>
       </c>
-      <c r="D355" s="2" t="s">
+      <c r="D355" t="s">
         <v>1419</v>
       </c>
-      <c r="E355" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
+      <c r="E355" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
         <v>1423</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" t="s">
         <v>1424</v>
       </c>
-      <c r="C356" s="2" t="s">
+      <c r="C356" t="s">
         <v>1425</v>
       </c>
-      <c r="D356" s="2" t="s">
+      <c r="D356" t="s">
         <v>1403</v>
       </c>
-      <c r="E356" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
+      <c r="E356" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
         <v>1426</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" t="s">
         <v>1427</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="C357" t="s">
         <v>1428</v>
       </c>
-      <c r="D357" s="2" t="s">
+      <c r="D357" t="s">
         <v>1429</v>
       </c>
-      <c r="E357" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
+      <c r="E357" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
         <v>1430</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" t="s">
         <v>1431</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="C358" t="s">
         <v>1432</v>
       </c>
-      <c r="D358" s="2" t="s">
+      <c r="D358" t="s">
         <v>1433</v>
       </c>
-      <c r="E358" s="3" t="s">
+      <c r="E358" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
+    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
         <v>1434</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" t="s">
         <v>1435</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="C359" t="s">
         <v>1436</v>
       </c>
-      <c r="D359" s="2" t="s">
+      <c r="D359" t="s">
         <v>1437</v>
       </c>
-      <c r="E359" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
+      <c r="E359" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
         <v>1438</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" t="s">
         <v>1439</v>
       </c>
-      <c r="C360" s="2" t="s">
+      <c r="C360" t="s">
         <v>1440</v>
       </c>
-      <c r="D360" s="2" t="s">
+      <c r="D360" t="s">
         <v>1441</v>
       </c>
-      <c r="E360" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
+      <c r="E360" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
         <v>1442</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" t="s">
         <v>1443</v>
       </c>
-      <c r="C361" s="2" t="s">
+      <c r="C361" t="s">
         <v>1444</v>
       </c>
-      <c r="D361" s="2" t="s">
+      <c r="D361" t="s">
         <v>1445</v>
       </c>
-      <c r="E361" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
+      <c r="E361" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
         <v>1446</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" t="s">
         <v>1447</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="C362" t="s">
         <v>1448</v>
       </c>
-      <c r="D362" s="2" t="s">
+      <c r="D362" t="s">
         <v>1449</v>
       </c>
-      <c r="E362" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
+      <c r="E362" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
         <v>1450</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" t="s">
         <v>1451</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="C363" t="s">
         <v>1452</v>
       </c>
-      <c r="D363" s="2" t="s">
+      <c r="D363" t="s">
         <v>1445</v>
       </c>
-      <c r="E363" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
+      <c r="E363" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
         <v>1453</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" t="s">
         <v>1454</v>
       </c>
-      <c r="C364" s="2" t="s">
+      <c r="C364" t="s">
         <v>1455</v>
       </c>
-      <c r="D364" s="2" t="s">
+      <c r="D364" t="s">
         <v>1456</v>
       </c>
-      <c r="E364" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
+      <c r="E364" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
         <v>1457</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" t="s">
         <v>1458</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="C365" t="s">
         <v>1459</v>
       </c>
-      <c r="D365" s="2" t="s">
+      <c r="D365" t="s">
         <v>1460</v>
       </c>
-      <c r="E365" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
+      <c r="E365" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
         <v>1461</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" t="s">
         <v>1462</v>
       </c>
-      <c r="C366" s="2" t="s">
+      <c r="C366" t="s">
         <v>1463</v>
       </c>
-      <c r="D366" s="2" t="s">
+      <c r="D366" t="s">
         <v>1419</v>
       </c>
-      <c r="E366" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
+      <c r="E366" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
         <v>1464</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" t="s">
         <v>1465</v>
       </c>
-      <c r="C367" s="2" t="s">
+      <c r="C367" t="s">
         <v>1466</v>
       </c>
-      <c r="D367" s="2" t="s">
+      <c r="D367" t="s">
         <v>1445</v>
       </c>
-      <c r="E367" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
+      <c r="E367" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
         <v>1467</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" t="s">
         <v>1468</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="C368" t="s">
         <v>1469</v>
       </c>
-      <c r="D368" s="2" t="s">
+      <c r="D368" t="s">
         <v>1445</v>
       </c>
-      <c r="E368" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
+      <c r="E368" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
         <v>1470</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" t="s">
         <v>1471</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="C369" t="s">
         <v>1472</v>
       </c>
-      <c r="D369" s="2" t="s">
+      <c r="D369" t="s">
         <v>1473</v>
       </c>
-      <c r="E369" s="3" t="s">
+      <c r="E369" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
+    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
         <v>1474</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" t="s">
         <v>1475</v>
       </c>
-      <c r="C370" s="2" t="s">
+      <c r="C370" t="s">
         <v>1476</v>
       </c>
-      <c r="D370" s="2" t="s">
+      <c r="D370" t="s">
         <v>1419</v>
       </c>
-      <c r="E370" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="2" t="s">
+      <c r="E370" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
         <v>1477</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" t="s">
         <v>1478</v>
       </c>
-      <c r="C371" s="2" t="s">
+      <c r="C371" t="s">
         <v>1479</v>
       </c>
-      <c r="D371" s="2" t="s">
+      <c r="D371" t="s">
         <v>1480</v>
       </c>
-      <c r="E371" s="3" t="s">
+      <c r="E371" s="2" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
+    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
         <v>1482</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" t="s">
         <v>1483</v>
       </c>
-      <c r="C372" s="2" t="s">
+      <c r="C372" t="s">
         <v>1484</v>
       </c>
-      <c r="D372" s="2" t="s">
+      <c r="D372" t="s">
         <v>1485</v>
       </c>
-      <c r="E372" s="3" t="s">
+      <c r="E372" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="2" t="s">
+    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
         <v>1486</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" t="s">
         <v>1487</v>
       </c>
-      <c r="C373" s="2" t="s">
+      <c r="C373" t="s">
         <v>1488</v>
       </c>
-      <c r="D373" s="2" t="s">
+      <c r="D373" t="s">
         <v>1489</v>
       </c>
-      <c r="E373" s="3" t="s">
+      <c r="E373" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="2" t="s">
+    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
         <v>1490</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" t="s">
         <v>1491</v>
       </c>
-      <c r="C374" s="2" t="s">
+      <c r="C374" t="s">
         <v>1492</v>
       </c>
-      <c r="D374" s="2" t="s">
+      <c r="D374" t="s">
         <v>1493</v>
       </c>
-      <c r="E374" s="3" t="s">
+      <c r="E374" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
+    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
         <v>1494</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" t="s">
         <v>1495</v>
       </c>
-      <c r="C375" s="2" t="s">
+      <c r="C375" t="s">
         <v>1496</v>
       </c>
-      <c r="D375" s="2" t="s">
+      <c r="D375" t="s">
         <v>1415</v>
       </c>
-      <c r="E375" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
+      <c r="E375" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
         <v>1497</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" t="s">
         <v>1498</v>
       </c>
-      <c r="C376" s="2" t="s">
+      <c r="C376" t="s">
         <v>1499</v>
       </c>
-      <c r="D376" s="2" t="s">
+      <c r="D376" t="s">
         <v>881</v>
       </c>
-      <c r="E376" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
+      <c r="E376" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
         <v>1500</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" t="s">
         <v>1501</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="C377" t="s">
         <v>1502</v>
       </c>
-      <c r="D377" s="2" t="s">
+      <c r="D377" t="s">
         <v>1460</v>
       </c>
-      <c r="E377" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
+      <c r="E377" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
         <v>1503</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" t="s">
         <v>1504</v>
       </c>
-      <c r="C378" s="2" t="s">
+      <c r="C378" t="s">
         <v>1505</v>
       </c>
-      <c r="D378" s="2" t="s">
+      <c r="D378" t="s">
         <v>1460</v>
       </c>
-      <c r="E378" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
+      <c r="E378" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
         <v>1506</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" t="s">
         <v>1507</v>
       </c>
-      <c r="C379" s="2" t="s">
+      <c r="C379" t="s">
         <v>1508</v>
       </c>
-      <c r="D379" s="2" t="s">
+      <c r="D379" t="s">
         <v>619</v>
       </c>
-      <c r="E379" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
+      <c r="E379" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
         <v>1509</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" t="s">
         <v>1510</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C380" t="s">
         <v>1511</v>
       </c>
-      <c r="D380" s="2" t="s">
+      <c r="D380" t="s">
         <v>1512</v>
       </c>
-      <c r="E380" s="3" t="s">
+      <c r="E380" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
+    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
         <v>1513</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" t="s">
         <v>1514</v>
       </c>
-      <c r="C381" s="2" t="s">
+      <c r="C381" t="s">
         <v>1515</v>
       </c>
-      <c r="D381" s="2" t="s">
+      <c r="D381" t="s">
         <v>1516</v>
       </c>
-      <c r="E381" s="3" t="s">
+      <c r="E381" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
+    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
         <v>1517</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" t="s">
         <v>1518</v>
       </c>
-      <c r="C382" s="2" t="s">
+      <c r="C382" t="s">
         <v>1519</v>
       </c>
-      <c r="D382" s="2" t="s">
+      <c r="D382" t="s">
         <v>1520</v>
       </c>
-      <c r="E382" s="3" t="s">
+      <c r="E382" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
+    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
         <v>1521</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" t="s">
         <v>1522</v>
       </c>
-      <c r="C383" s="2" t="s">
+      <c r="C383" t="s">
         <v>1523</v>
       </c>
-      <c r="D383" s="2" t="s">
+      <c r="D383" t="s">
         <v>1415</v>
       </c>
-      <c r="E383" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E383" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>158</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
